--- a/public/templates/环保资料物料批导模板V1.0.xlsx
+++ b/public/templates/环保资料物料批导模板V1.0.xlsx
@@ -15,30 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>rowKey</t>
   </si>
   <si>
-    <t>splitPartsName</t>
+    <t>materialCode</t>
   </si>
   <si>
-    <t>homogeneousMaterialName</t>
-  </si>
-  <si>
-    <t>testOrganization</t>
-  </si>
-  <si>
-    <t>reportResult</t>
-  </si>
-  <si>
-    <t>reportNumber</t>
-  </si>
-  <si>
-    <t>reportDate</t>
-  </si>
-  <si>
-    <t>effectiveEndDate</t>
+    <t>environmentAdminAccount</t>
   </si>
   <si>
     <t>拆分部件-批导模板
@@ -51,25 +36,10 @@
     <t>物料代码</t>
   </si>
   <si>
-    <t>物料组代码</t>
+    <t>环保管理人员员工编号</t>
   </si>
   <si>
-    <t>环保标准代码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">测试结论 
-(true-通过)
-(false-不通过))
-</t>
-  </si>
-  <si>
-    <t>报告编号</t>
-  </si>
-  <si>
-    <t>报告日期</t>
-  </si>
-  <si>
-    <t>有效截止日期</t>
+    <t>环保管理人员姓名</t>
   </si>
 </sst>
 </file>
@@ -78,11 +48,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,11 +67,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,6 +75,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -118,19 +129,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -139,8 +157,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,21 +176,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,6 +189,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -186,69 +206,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,187 +234,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,6 +439,56 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,15 +517,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -528,50 +534,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,10 +546,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,16 +558,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -611,119 +576,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -735,10 +700,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -746,12 +708,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1104,79 +1060,51 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="28.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="26" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="1" hidden="1" customHeight="1" spans="2:9">
+    <row r="1" ht="101" hidden="1" customHeight="1" spans="2:5">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="60" customHeight="1" spans="1:5">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="60" customHeight="1" spans="1:9">
-      <c r="A2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/public/templates/环保资料物料批导模板V1.0.xlsx
+++ b/public/templates/环保资料物料批导模板V1.0.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="24000" windowHeight="9840"/>
   </bookViews>
   <sheets>
-    <sheet name="拆分部件" sheetId="1" r:id="rId1"/>
+    <sheet name="环保资料物料" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -26,7 +26,7 @@
     <t>environmentAdminAccount</t>
   </si>
   <si>
-    <t>拆分部件-批导模板
+    <t>环保资料物料-批导模板
 ——标注黄色的为必填项</t>
   </si>
   <si>
@@ -47,10 +47,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -75,9 +75,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,7 +167,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,120 +175,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,18 +234,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -258,13 +366,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,145 +396,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,26 +443,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -478,6 +458,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -489,21 +478,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,9 +508,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,10 +546,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,19 +558,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,112 +579,112 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1063,7 +1063,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
